--- a/Ej8/Others/eleccion-componentes.xlsx
+++ b/Ej8/Others/eleccion-componentes.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Clock3" sheetId="1" r:id="rId1"/>
     <sheet name="Clock2" sheetId="2" r:id="rId2"/>
     <sheet name="Clock1" sheetId="3" r:id="rId3"/>
-    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
+    <sheet name="Clock2final" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
   <si>
     <t>CLOCK 1</t>
   </si>
@@ -195,6 +195,21 @@
   <si>
     <t>t_low(f_max)</t>
   </si>
+  <si>
+    <t>Medicion</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>R1</t>
+  </si>
+  <si>
+    <t>f (Hz)</t>
+  </si>
+  <si>
+    <t>preset</t>
+  </si>
 </sst>
 </file>
 
@@ -204,13 +219,19 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="##0.00E+00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -513,7 +534,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -580,15 +601,16 @@
     <xf numFmtId="165" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -892,7 +914,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z604"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <selection activeCell="M8" sqref="M8"/>
     </sheetView>
   </sheetViews>
@@ -909,14 +931,14 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="56"/>
-      <c r="F2" s="57" t="s">
+      <c r="B2" s="57"/>
+      <c r="F2" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="57"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
@@ -980,10 +1002,10 @@
       <c r="G5" s="3">
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="L5" s="56" t="s">
+      <c r="L5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="56"/>
+      <c r="M5" s="57"/>
       <c r="O5" s="10"/>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.25">
@@ -1027,16 +1049,16 @@
         <v>52</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="58" t="s">
+      <c r="W6" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="X6" s="58" t="s">
+      <c r="X6" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="Y6" s="58" t="s">
+      <c r="Y6" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="Z6" s="58" t="s">
+      <c r="Z6" s="56" t="s">
         <v>58</v>
       </c>
     </row>
@@ -10616,7 +10638,7 @@
   <dimension ref="A5:R36"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11306,7 +11328,7 @@
   <dimension ref="A1:M291"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15925,25 +15947,84 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4.7E-7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="59" t="s">
+        <v>60</v>
+      </c>
+      <c r="B5" s="1">
+        <f>B3/(B3+B2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="54">
+        <f>1/(B1*2*B4*LN((1+B5)/(1-B5)))</f>
+        <v>19366.792055890157</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ej8/Others/eleccion-componentes.xlsx
+++ b/Ej8/Others/eleccion-componentes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Clock3" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="67">
   <si>
     <t>CLOCK 1</t>
   </si>
@@ -130,16 +130,7 @@
     <t>R_2</t>
   </si>
   <si>
-    <t>15k</t>
-  </si>
-  <si>
     <t>680k</t>
-  </si>
-  <si>
-    <t>288k</t>
-  </si>
-  <si>
-    <t>4,7u</t>
   </si>
   <si>
     <t>CLOCK 2</t>
@@ -208,16 +199,35 @@
     <t>f (Hz)</t>
   </si>
   <si>
-    <t>preset</t>
+    <t>f posta</t>
+  </si>
+  <si>
+    <t>R_serie</t>
+  </si>
+  <si>
+    <t>R_pot</t>
+  </si>
+  <si>
+    <t>Rserie 18k?</t>
+  </si>
+  <si>
+    <t>Teorico</t>
+  </si>
+  <si>
+    <t>t_high(f_min)</t>
+  </si>
+  <si>
+    <t>t_high(fmax)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="##0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -534,7 +544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -604,13 +614,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -912,10 +928,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z604"/>
+  <dimension ref="A1:AB604"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="Y13" sqref="Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -923,24 +939,26 @@
     <col min="4" max="10" width="11.42578125" style="10"/>
     <col min="25" max="25" width="14.140625" customWidth="1"/>
     <col min="26" max="26" width="14.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="F2" s="58" t="s">
+      <c r="B2" s="59"/>
+      <c r="F2" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="58"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="G2" s="60"/>
+    </row>
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>100</v>
       </c>
@@ -963,7 +981,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>110</v>
       </c>
@@ -983,7 +1001,7 @@
         <v>3.8999999999999999E-6</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>120</v>
       </c>
@@ -1002,13 +1020,13 @@
       <c r="G5" s="3">
         <v>4.6999999999999999E-6</v>
       </c>
-      <c r="L5" s="57" t="s">
+      <c r="L5" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="M5" s="57"/>
+      <c r="M5" s="59"/>
       <c r="O5" s="10"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>150</v>
       </c>
@@ -1046,23 +1064,29 @@
         <v>32</v>
       </c>
       <c r="T6" s="45" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="V6" s="1"/>
       <c r="W6" s="56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="X6" s="56" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y6" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="Y6" s="56" t="s">
-        <v>57</v>
-      </c>
       <c r="Z6" s="56" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="AA6" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB6" s="56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>180</v>
       </c>
@@ -1096,14 +1120,14 @@
       <c r="R7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="S7" s="4" t="s">
-        <v>37</v>
+      <c r="S7" s="61">
+        <v>15000</v>
       </c>
       <c r="T7" s="46">
         <v>14760</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="W7" s="28">
         <f>1/(LN(2)*$T$12*($T$7+$T$10+2*$T$11))</f>
@@ -1121,8 +1145,10 @@
         <f>LN(2)*$T$12*$T$11</f>
         <v>5.5507226219240428E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+    </row>
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="B8" s="5">
         <v>330</v>
       </c>
@@ -1151,13 +1177,13 @@
         <v>33</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="T8" s="46">
         <v>662000</v>
       </c>
       <c r="V8" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="W8" s="1">
         <v>1.52</v>
@@ -1171,8 +1197,10 @@
       <c r="Z8" s="3">
         <v>5.8500000000000002E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+    </row>
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="L9" s="5">
         <v>150</v>
       </c>
@@ -1194,8 +1222,26 @@
       <c r="T9" s="46">
         <v>420000</v>
       </c>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="V9" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="3">
+        <f>LN(2)*$S$11*$S$12</f>
+        <v>5.8640251475371369E-4</v>
+      </c>
+      <c r="Z9" s="3"/>
+      <c r="AA9" s="62">
+        <f>LN(2)*$S$12*($S$11+$S$10+$S$7)</f>
+        <v>0.98769730235017172</v>
+      </c>
+      <c r="AB9" s="63">
+        <f>LN(2)*$S$12*($S$11+$S$7)</f>
+        <v>4.9453278744229855E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
@@ -1215,15 +1261,15 @@
       <c r="R10" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="4" t="s">
-        <v>39</v>
+      <c r="S10" s="61">
+        <v>288000</v>
       </c>
       <c r="T10" s="46">
         <f>T7+1/(1/T8 + 1/T9)</f>
         <v>271728.57670979667</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -1258,23 +1304,24 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
       <c r="R12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="S12" s="4" t="s">
-        <v>40</v>
+      <c r="S12" s="61">
+        <v>4.6999999999999999E-6</v>
       </c>
       <c r="T12" s="46">
         <v>4.4000000000000002E-6</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="Y13" s="35"/>
+    </row>
+    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1000</v>
       </c>
@@ -1297,8 +1344,8 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:26" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:28" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
@@ -1416,7 +1463,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T17" s="20">
-        <f t="shared" ref="T17:T39" si="3">1/(LN(2)*M17*(O17+S17+2*L17))</f>
+        <f>1/(LN(2)*M17*(O17+S17+2*L17))</f>
         <v>1.0114031258953118</v>
       </c>
       <c r="U17" s="26">
@@ -1424,15 +1471,15 @@
         <v>1.1403125895311783E-2</v>
       </c>
       <c r="V17" s="29">
-        <f t="shared" ref="V17:V39" si="4">1/(LN(2)*M17*(O17+2*L17))</f>
+        <f t="shared" ref="V17:V39" si="3">1/(LN(2)*M17*(O17+2*L17))</f>
         <v>19.984140083235864</v>
       </c>
       <c r="W17" s="26">
-        <f t="shared" ref="W17:W39" si="5">ABS(V17-$B$18)/$B$18</f>
+        <f t="shared" ref="W17:W39" si="4">ABS(V17-$B$18)/$B$18</f>
         <v>7.9299583820677808E-4</v>
       </c>
       <c r="X17" s="23">
-        <f t="shared" ref="X17:X39" si="6">U17/2 + W17/2</f>
+        <f t="shared" ref="X17:X39" si="5">U17/2 + W17/2</f>
         <v>6.0980608667592804E-3</v>
       </c>
     </row>
@@ -1450,11 +1497,11 @@
         <v>1.1999999999999999E-6</v>
       </c>
       <c r="F18" s="3">
-        <f t="shared" ref="F18:F81" si="7" xml:space="preserve"> 1/($B$18*LN(2)*E18)- 2*D18</f>
+        <f t="shared" ref="F18:F81" si="6" xml:space="preserve"> 1/($B$18*LN(2)*E18)- 2*D18</f>
         <v>59912.293370373474</v>
       </c>
       <c r="G18" s="3">
-        <f t="shared" ref="G18:G81" si="8">$B$19/($B$17*$B$18*LN(2)*E18)</f>
+        <f t="shared" ref="G18:G81" si="7">$B$19/($B$17*$B$18*LN(2)*E18)</f>
         <v>1142133.574037096</v>
       </c>
       <c r="H18" s="3"/>
@@ -1488,7 +1535,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T18" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="T17:T39" si="8">1/(LN(2)*M18*(O18+S18+2*L18))</f>
         <v>1.0112698429263969</v>
       </c>
       <c r="U18" s="22">
@@ -1496,15 +1543,15 @@
         <v>1.1269842926396878E-2</v>
       </c>
       <c r="V18" s="28">
+        <f t="shared" si="3"/>
+        <v>19.932233225876811</v>
+      </c>
+      <c r="W18" s="22">
         <f t="shared" si="4"/>
-        <v>19.932233225876811</v>
-      </c>
-      <c r="W18" s="22">
+        <v>3.3883387061594663E-3</v>
+      </c>
+      <c r="X18" s="24">
         <f t="shared" si="5"/>
-        <v>3.3883387061594663E-3</v>
-      </c>
-      <c r="X18" s="24">
-        <f t="shared" si="6"/>
         <v>7.3290908162781717E-3</v>
       </c>
     </row>
@@ -1523,11 +1570,11 @@
         <v>1.5E-6</v>
       </c>
       <c r="F19" s="3">
+        <f t="shared" si="6"/>
+        <v>47889.834696298778</v>
+      </c>
+      <c r="G19" s="3">
         <f t="shared" si="7"/>
-        <v>47889.834696298778</v>
-      </c>
-      <c r="G19" s="3">
-        <f t="shared" si="8"/>
         <v>913706.85922967677</v>
       </c>
       <c r="H19" s="3"/>
@@ -1561,7 +1608,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T19" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0116031162356331</v>
       </c>
       <c r="U19" s="22">
@@ -1569,15 +1616,15 @@
         <v>1.1603116235633149E-2</v>
       </c>
       <c r="V19" s="28">
+        <f t="shared" si="3"/>
+        <v>20.062509260032868</v>
+      </c>
+      <c r="W19" s="22">
         <f t="shared" si="4"/>
-        <v>20.062509260032868</v>
-      </c>
-      <c r="W19" s="22">
+        <v>3.1254630016434247E-3</v>
+      </c>
+      <c r="X19" s="24">
         <f t="shared" si="5"/>
-        <v>3.1254630016434247E-3</v>
-      </c>
-      <c r="X19" s="24">
-        <f t="shared" si="6"/>
         <v>7.3642896186382869E-3</v>
       </c>
     </row>
@@ -1589,11 +1636,11 @@
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="F20" s="3">
+        <f t="shared" si="6"/>
+        <v>39874.862246915654</v>
+      </c>
+      <c r="G20" s="3">
         <f t="shared" si="7"/>
-        <v>39874.862246915654</v>
-      </c>
-      <c r="G20" s="3">
-        <f t="shared" si="8"/>
         <v>761422.38269139745</v>
       </c>
       <c r="H20" s="3"/>
@@ -1627,22 +1674,22 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T20" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0111365950809823</v>
       </c>
       <c r="U20" s="22">
         <v>0.01</v>
       </c>
       <c r="V20" s="28">
+        <f t="shared" si="3"/>
+        <v>19.880595315965213</v>
+      </c>
+      <c r="W20" s="22">
         <f t="shared" si="4"/>
-        <v>19.880595315965213</v>
-      </c>
-      <c r="W20" s="22">
+        <v>5.9702342017393661E-3</v>
+      </c>
+      <c r="X20" s="24">
         <f t="shared" si="5"/>
-        <v>5.9702342017393661E-3</v>
-      </c>
-      <c r="X20" s="24">
-        <f t="shared" si="6"/>
         <v>7.985117100869684E-3</v>
       </c>
     </row>
@@ -1654,11 +1701,11 @@
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="F21" s="3">
+        <f t="shared" si="6"/>
+        <v>32588.523656567348</v>
+      </c>
+      <c r="G21" s="3">
         <f t="shared" si="7"/>
-        <v>32588.523656567348</v>
-      </c>
-      <c r="G21" s="3">
-        <f t="shared" si="8"/>
         <v>622981.94947477966</v>
       </c>
       <c r="H21" s="3"/>
@@ -1692,7 +1739,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T21" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0118031856819911</v>
       </c>
       <c r="U21" s="22">
@@ -1700,15 +1747,15 @@
         <v>1.1803185681991124E-2</v>
       </c>
       <c r="V21" s="28">
+        <f t="shared" si="3"/>
+        <v>20.141495516962131</v>
+      </c>
+      <c r="W21" s="22">
         <f t="shared" si="4"/>
-        <v>20.141495516962131</v>
-      </c>
-      <c r="W21" s="22">
+        <v>7.07477584810654E-3</v>
+      </c>
+      <c r="X21" s="24">
         <f t="shared" si="5"/>
-        <v>7.07477584810654E-3</v>
-      </c>
-      <c r="X21" s="24">
-        <f t="shared" si="6"/>
         <v>9.4389807650488329E-3</v>
       </c>
     </row>
@@ -1720,11 +1767,11 @@
         <v>2.7E-6</v>
       </c>
       <c r="F22" s="3">
+        <f t="shared" si="6"/>
+        <v>26516.574831277103</v>
+      </c>
+      <c r="G22" s="3">
         <f t="shared" si="7"/>
-        <v>26516.574831277103</v>
-      </c>
-      <c r="G22" s="3">
-        <f t="shared" si="8"/>
         <v>507614.92179426493</v>
       </c>
       <c r="H22" s="3"/>
@@ -1758,7 +1805,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T22" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0110033823451861</v>
       </c>
       <c r="U22" s="22">
@@ -1766,15 +1813,15 @@
         <v>1.1003382345186052E-2</v>
       </c>
       <c r="V22" s="28">
+        <f t="shared" si="3"/>
+        <v>19.829224268637137</v>
+      </c>
+      <c r="W22" s="22">
         <f t="shared" si="4"/>
-        <v>19.829224268637137</v>
-      </c>
-      <c r="W22" s="22">
+        <v>8.5387865681431311E-3</v>
+      </c>
+      <c r="X22" s="24">
         <f t="shared" si="5"/>
-        <v>8.5387865681431311E-3</v>
-      </c>
-      <c r="X22" s="24">
-        <f t="shared" si="6"/>
         <v>9.7710844566645909E-3</v>
       </c>
     </row>
@@ -1786,11 +1833,11 @@
         <v>3.3000000000000002E-6</v>
       </c>
       <c r="F23" s="3">
+        <f t="shared" si="6"/>
+        <v>21659.015771044898</v>
+      </c>
+      <c r="G23" s="3">
         <f t="shared" si="7"/>
-        <v>21659.015771044898</v>
-      </c>
-      <c r="G23" s="3">
-        <f t="shared" si="8"/>
         <v>415321.29964985303</v>
       </c>
       <c r="H23" s="3"/>
@@ -1824,7 +1871,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T23" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0118698930846761</v>
       </c>
       <c r="U23" s="22">
@@ -1832,15 +1879,15 @@
         <v>1.186989308467612E-2</v>
       </c>
       <c r="V23" s="28">
+        <f t="shared" si="3"/>
+        <v>20.167962659559979</v>
+      </c>
+      <c r="W23" s="22">
         <f t="shared" si="4"/>
-        <v>20.167962659559979</v>
-      </c>
-      <c r="W23" s="22">
+        <v>8.3981329779989622E-3</v>
+      </c>
+      <c r="X23" s="24">
         <f t="shared" si="5"/>
-        <v>8.3981329779989622E-3</v>
-      </c>
-      <c r="X23" s="24">
-        <f t="shared" si="6"/>
         <v>1.0134013031337541E-2</v>
       </c>
     </row>
@@ -1852,11 +1899,11 @@
         <v>3.8999999999999999E-6</v>
       </c>
       <c r="F24" s="3">
+        <f t="shared" si="6"/>
+        <v>18296.090267807223</v>
+      </c>
+      <c r="G24" s="3">
         <f t="shared" si="7"/>
-        <v>18296.090267807223</v>
-      </c>
-      <c r="G24" s="3">
-        <f t="shared" si="8"/>
         <v>351425.71508833725</v>
       </c>
       <c r="H24" s="3"/>
@@ -1890,7 +1937,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T24" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.011936609283876</v>
       </c>
       <c r="U24" s="22">
@@ -1898,15 +1945,15 @@
         <v>1.1936609283875965E-2</v>
       </c>
       <c r="V24" s="28">
+        <f t="shared" si="3"/>
+        <v>20.194499452533083</v>
+      </c>
+      <c r="W24" s="22">
         <f t="shared" si="4"/>
-        <v>20.194499452533083</v>
-      </c>
-      <c r="W24" s="22">
+        <v>9.7249726266541714E-3</v>
+      </c>
+      <c r="X24" s="24">
         <f t="shared" si="5"/>
-        <v>9.7249726266541714E-3</v>
-      </c>
-      <c r="X24" s="24">
-        <f t="shared" si="6"/>
         <v>1.0830790955265068E-2</v>
       </c>
     </row>
@@ -1918,11 +1965,11 @@
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="F25" s="3">
+        <f t="shared" si="6"/>
+        <v>15147.819583925144</v>
+      </c>
+      <c r="G25" s="3">
         <f t="shared" si="7"/>
-        <v>15147.819583925144</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="8"/>
         <v>291608.57209457771</v>
       </c>
       <c r="H25" s="3"/>
@@ -1956,7 +2003,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T25" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0108036290416775</v>
       </c>
       <c r="U25" s="22">
@@ -1964,15 +2011,15 @@
         <v>1.0803629041677532E-2</v>
       </c>
       <c r="V25" s="28">
+        <f t="shared" si="3"/>
+        <v>19.752663557175218</v>
+      </c>
+      <c r="W25" s="22">
         <f t="shared" si="4"/>
-        <v>19.752663557175218</v>
-      </c>
-      <c r="W25" s="22">
+        <v>1.2366822141239098E-2</v>
+      </c>
+      <c r="X25" s="24">
         <f t="shared" si="5"/>
-        <v>1.2366822141239098E-2</v>
-      </c>
-      <c r="X25" s="24">
-        <f t="shared" si="6"/>
         <v>1.1585225591458314E-2</v>
       </c>
     </row>
@@ -1984,11 +2031,11 @@
         <v>5.5999999999999997E-6</v>
       </c>
       <c r="F26" s="3">
+        <f t="shared" si="6"/>
+        <v>12681.205722222889</v>
+      </c>
+      <c r="G26" s="3">
         <f t="shared" si="7"/>
-        <v>12681.205722222889</v>
-      </c>
-      <c r="G26" s="3">
-        <f t="shared" si="8"/>
         <v>244742.90872223489</v>
       </c>
       <c r="H26" s="3">
@@ -2024,7 +2071,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T26" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0106039546567973</v>
       </c>
       <c r="U26" s="22">
@@ -2032,15 +2079,15 @@
         <v>1.060395465679731E-2</v>
       </c>
       <c r="V26" s="28">
+        <f t="shared" si="3"/>
+        <v>19.676691774263006</v>
+      </c>
+      <c r="W26" s="22">
         <f t="shared" si="4"/>
-        <v>19.676691774263006</v>
-      </c>
-      <c r="W26" s="22">
+        <v>1.6165411286849719E-2</v>
+      </c>
+      <c r="X26" s="24">
         <f t="shared" si="5"/>
-        <v>1.6165411286849719E-2</v>
-      </c>
-      <c r="X26" s="24">
-        <f t="shared" si="6"/>
         <v>1.3384682971823514E-2</v>
       </c>
     </row>
@@ -2052,11 +2099,11 @@
         <v>6.8000000000000001E-6</v>
       </c>
       <c r="F27" s="3">
+        <f t="shared" si="6"/>
+        <v>10408.051771242377</v>
+      </c>
+      <c r="G27" s="3">
         <f t="shared" si="7"/>
-        <v>10408.051771242377</v>
-      </c>
-      <c r="G27" s="3">
-        <f t="shared" si="8"/>
         <v>201552.98365360516</v>
       </c>
       <c r="H27" s="3"/>
@@ -2090,7 +2137,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T27" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0104043591437859</v>
       </c>
       <c r="U27" s="22">
@@ -2098,15 +2145,15 @@
         <v>1.0404359143785902E-2</v>
       </c>
       <c r="V27" s="28">
+        <f t="shared" si="3"/>
+        <v>19.601302150606823</v>
+      </c>
+      <c r="W27" s="22">
         <f t="shared" si="4"/>
-        <v>19.601302150606823</v>
-      </c>
-      <c r="W27" s="22">
+        <v>1.9934892469658828E-2</v>
+      </c>
+      <c r="X27" s="24">
         <f t="shared" si="5"/>
-        <v>1.9934892469658828E-2</v>
-      </c>
-      <c r="X27" s="24">
-        <f t="shared" si="6"/>
         <v>1.5169625806722365E-2</v>
       </c>
     </row>
@@ -2118,11 +2165,11 @@
         <v>8.1999999999999994E-6</v>
       </c>
       <c r="F28" s="9">
+        <f t="shared" si="6"/>
+        <v>8596.9209810302655</v>
+      </c>
+      <c r="G28" s="9">
         <f t="shared" si="7"/>
-        <v>8596.9209810302655</v>
-      </c>
-      <c r="G28" s="9">
-        <f t="shared" si="8"/>
         <v>167141.49863957503</v>
       </c>
       <c r="H28" s="9"/>
@@ -2156,7 +2203,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T28" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0102048424559207</v>
       </c>
       <c r="U28" s="22">
@@ -2164,15 +2211,15 @@
         <v>1.0204842455920682E-2</v>
       </c>
       <c r="V28" s="28">
+        <f t="shared" si="3"/>
+        <v>19.526488020260995</v>
+      </c>
+      <c r="W28" s="22">
         <f t="shared" si="4"/>
-        <v>19.526488020260995</v>
-      </c>
-      <c r="W28" s="22">
+        <v>2.3675598986950243E-2</v>
+      </c>
+      <c r="X28" s="24">
         <f t="shared" si="5"/>
-        <v>2.3675598986950243E-2</v>
-      </c>
-      <c r="X28" s="24">
-        <f t="shared" si="6"/>
         <v>1.6940220721435462E-2</v>
       </c>
     </row>
@@ -2184,11 +2231,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F29" s="8">
+        <f t="shared" si="6"/>
+        <v>7013.475204444816</v>
+      </c>
+      <c r="G29" s="8">
         <f t="shared" si="7"/>
-        <v>7013.475204444816</v>
-      </c>
-      <c r="G29" s="8">
-        <f t="shared" si="8"/>
         <v>137056.02888445152</v>
       </c>
       <c r="H29" s="8"/>
@@ -2222,7 +2269,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T29" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0100054045465161</v>
       </c>
       <c r="U29" s="22">
@@ -2230,15 +2277,15 @@
         <v>1.0005404546516106E-2</v>
       </c>
       <c r="V29" s="28">
+        <f t="shared" si="3"/>
+        <v>19.452242818663045</v>
+      </c>
+      <c r="W29" s="22">
         <f t="shared" si="4"/>
-        <v>19.452242818663045</v>
-      </c>
-      <c r="W29" s="22">
+        <v>2.7387859066847754E-2</v>
+      </c>
+      <c r="X29" s="24">
         <f t="shared" si="5"/>
-        <v>2.7387859066847754E-2</v>
-      </c>
-      <c r="X29" s="24">
-        <f t="shared" si="6"/>
         <v>1.8696631806681928E-2</v>
       </c>
     </row>
@@ -2250,11 +2297,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F30" s="7">
+        <f t="shared" si="6"/>
+        <v>71914.752044448178</v>
+      </c>
+      <c r="G30" s="7">
         <f t="shared" si="7"/>
-        <v>71914.752044448178</v>
-      </c>
-      <c r="G30" s="7">
-        <f t="shared" si="8"/>
         <v>1370560.2888445153</v>
       </c>
       <c r="H30" s="7"/>
@@ -2288,7 +2335,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T30" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0097396097976259</v>
       </c>
       <c r="U30" s="22">
@@ -2296,15 +2343,15 @@
         <v>9.7396097976258922E-3</v>
       </c>
       <c r="V30" s="28">
+        <f t="shared" si="3"/>
+        <v>19.354123056652135</v>
+      </c>
+      <c r="W30" s="22">
         <f t="shared" si="4"/>
-        <v>19.354123056652135</v>
-      </c>
-      <c r="W30" s="22">
+        <v>3.2293847167393253E-2</v>
+      </c>
+      <c r="X30" s="24">
         <f t="shared" si="5"/>
-        <v>3.2293847167393253E-2</v>
-      </c>
-      <c r="X30" s="24">
-        <f t="shared" si="6"/>
         <v>2.1016728482509572E-2</v>
       </c>
     </row>
@@ -2316,11 +2363,11 @@
         <v>1.1999999999999999E-6</v>
       </c>
       <c r="F31" s="3">
+        <f t="shared" si="6"/>
+        <v>59892.293370373474</v>
+      </c>
+      <c r="G31" s="3">
         <f t="shared" si="7"/>
-        <v>59892.293370373474</v>
-      </c>
-      <c r="G31" s="3">
-        <f t="shared" si="8"/>
         <v>1142133.574037096</v>
       </c>
       <c r="H31" s="3"/>
@@ -2354,7 +2401,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T31" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0094739549059315</v>
       </c>
       <c r="U31" s="22">
@@ -2362,15 +2409,15 @@
         <v>9.4739549059315031E-3</v>
       </c>
       <c r="V31" s="28">
+        <f t="shared" si="3"/>
+        <v>19.256988185602442</v>
+      </c>
+      <c r="W31" s="22">
         <f t="shared" si="4"/>
-        <v>19.256988185602442</v>
-      </c>
-      <c r="W31" s="22">
+        <v>3.7150590719877918E-2</v>
+      </c>
+      <c r="X31" s="24">
         <f t="shared" si="5"/>
-        <v>3.7150590719877918E-2</v>
-      </c>
-      <c r="X31" s="24">
-        <f t="shared" si="6"/>
         <v>2.3312272812904711E-2</v>
       </c>
     </row>
@@ -2382,11 +2429,11 @@
         <v>1.5E-6</v>
       </c>
       <c r="F32" s="3">
+        <f t="shared" si="6"/>
+        <v>47869.834696298778</v>
+      </c>
+      <c r="G32" s="3">
         <f t="shared" si="7"/>
-        <v>47869.834696298778</v>
-      </c>
-      <c r="G32" s="3">
-        <f t="shared" si="8"/>
         <v>913706.85922967677</v>
       </c>
       <c r="H32" s="3"/>
@@ -2420,7 +2467,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T32" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0092084397610761</v>
       </c>
       <c r="U32" s="22">
@@ -2428,15 +2475,15 @@
         <v>9.2084397610761037E-3</v>
       </c>
       <c r="V32" s="28">
+        <f t="shared" si="3"/>
+        <v>19.160823450593188</v>
+      </c>
+      <c r="W32" s="22">
         <f t="shared" si="4"/>
-        <v>19.160823450593188</v>
-      </c>
-      <c r="W32" s="22">
+        <v>4.195882747034059E-2</v>
+      </c>
+      <c r="X32" s="24">
         <f t="shared" si="5"/>
-        <v>4.195882747034059E-2</v>
-      </c>
-      <c r="X32" s="24">
-        <f t="shared" si="6"/>
         <v>2.5583633615708347E-2</v>
       </c>
     </row>
@@ -2448,11 +2495,11 @@
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="F33" s="3">
+        <f t="shared" si="6"/>
+        <v>39854.862246915654</v>
+      </c>
+      <c r="G33" s="3">
         <f t="shared" si="7"/>
-        <v>39854.862246915654</v>
-      </c>
-      <c r="G33" s="3">
-        <f t="shared" si="8"/>
         <v>761422.38269139745</v>
       </c>
       <c r="H33" s="3"/>
@@ -2486,7 +2533,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T33" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0088767421810649</v>
       </c>
       <c r="U33" s="22">
@@ -2494,15 +2541,15 @@
         <v>8.8767421810649338E-3</v>
       </c>
       <c r="V33" s="28">
+        <f t="shared" si="3"/>
+        <v>19.041959781544843</v>
+      </c>
+      <c r="W33" s="22">
         <f t="shared" si="4"/>
-        <v>19.041959781544843</v>
-      </c>
-      <c r="W33" s="22">
+        <v>4.790201092275783E-2</v>
+      </c>
+      <c r="X33" s="24">
         <f t="shared" si="5"/>
-        <v>4.790201092275783E-2</v>
-      </c>
-      <c r="X33" s="24">
-        <f t="shared" si="6"/>
         <v>2.8389376551911382E-2</v>
       </c>
     </row>
@@ -2514,11 +2561,11 @@
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="F34" s="3">
+        <f t="shared" si="6"/>
+        <v>32568.523656567348</v>
+      </c>
+      <c r="G34" s="3">
         <f t="shared" si="7"/>
-        <v>32568.523656567348</v>
-      </c>
-      <c r="G34" s="3">
-        <f t="shared" si="8"/>
         <v>622981.94947477966</v>
       </c>
       <c r="H34" s="3"/>
@@ -2552,7 +2599,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0084789927827611</v>
       </c>
       <c r="U34" s="22">
@@ -2560,15 +2607,15 @@
         <v>8.4789927827610967E-3</v>
       </c>
       <c r="V34" s="28">
+        <f t="shared" si="3"/>
+        <v>18.901255645228009</v>
+      </c>
+      <c r="W34" s="22">
         <f t="shared" si="4"/>
-        <v>18.901255645228009</v>
-      </c>
-      <c r="W34" s="22">
+        <v>5.4937217738599567E-2</v>
+      </c>
+      <c r="X34" s="24">
         <f t="shared" si="5"/>
-        <v>5.4937217738599567E-2</v>
-      </c>
-      <c r="X34" s="24">
-        <f t="shared" si="6"/>
         <v>3.1708105260680332E-2</v>
       </c>
     </row>
@@ -2580,11 +2627,11 @@
         <v>2.7E-6</v>
       </c>
       <c r="F35" s="3">
+        <f t="shared" si="6"/>
+        <v>26496.574831277103</v>
+      </c>
+      <c r="G35" s="3">
         <f t="shared" si="7"/>
-        <v>26496.574831277103</v>
-      </c>
-      <c r="G35" s="3">
-        <f t="shared" si="8"/>
         <v>507614.92179426493</v>
       </c>
       <c r="H35" s="3"/>
@@ -2618,7 +2665,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0080815568860573</v>
       </c>
       <c r="U35" s="22">
@@ -2626,15 +2673,15 @@
         <v>8.0815568860572728E-3</v>
       </c>
       <c r="V35" s="28">
+        <f t="shared" si="3"/>
+        <v>18.762615628270346</v>
+      </c>
+      <c r="W35" s="22">
         <f t="shared" si="4"/>
-        <v>18.762615628270346</v>
-      </c>
-      <c r="W35" s="22">
+        <v>6.1869218586482685E-2</v>
+      </c>
+      <c r="X35" s="24">
         <f t="shared" si="5"/>
-        <v>6.1869218586482685E-2</v>
-      </c>
-      <c r="X35" s="24">
-        <f t="shared" si="6"/>
         <v>3.4975387736269979E-2</v>
       </c>
     </row>
@@ -2646,11 +2693,11 @@
         <v>3.3000000000000002E-6</v>
       </c>
       <c r="F36" s="3">
+        <f t="shared" si="6"/>
+        <v>21639.015771044898</v>
+      </c>
+      <c r="G36" s="3">
         <f t="shared" si="7"/>
-        <v>21639.015771044898</v>
-      </c>
-      <c r="G36" s="3">
-        <f t="shared" si="8"/>
         <v>415321.29964985303</v>
       </c>
       <c r="H36" s="3"/>
@@ -2684,7 +2731,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0076182774101687</v>
       </c>
       <c r="U36" s="22">
@@ -2692,15 +2739,15 @@
         <v>7.6182774101687389E-3</v>
       </c>
       <c r="V36" s="28">
+        <f t="shared" si="3"/>
+        <v>18.603417677485023</v>
+      </c>
+      <c r="W36" s="22">
         <f t="shared" si="4"/>
-        <v>18.603417677485023</v>
-      </c>
-      <c r="W36" s="22">
+        <v>6.9829116125748852E-2</v>
+      </c>
+      <c r="X36" s="24">
         <f t="shared" si="5"/>
-        <v>6.9829116125748852E-2</v>
-      </c>
-      <c r="X36" s="24">
-        <f t="shared" si="6"/>
         <v>3.8723696767958796E-2</v>
       </c>
     </row>
@@ -2712,11 +2759,11 @@
         <v>3.8999999999999999E-6</v>
       </c>
       <c r="F37" s="3">
+        <f t="shared" si="6"/>
+        <v>18276.090267807223</v>
+      </c>
+      <c r="G37" s="3">
         <f t="shared" si="7"/>
-        <v>18276.090267807223</v>
-      </c>
-      <c r="G37" s="3">
-        <f t="shared" si="8"/>
         <v>351425.71508833725</v>
       </c>
       <c r="H37" s="3"/>
@@ -2750,7 +2797,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0071554235531821</v>
       </c>
       <c r="U37" s="22">
@@ -2758,15 +2805,15 @@
         <v>7.1554235531821053E-3</v>
       </c>
       <c r="V37" s="28">
+        <f t="shared" si="3"/>
+        <v>18.446898538371567</v>
+      </c>
+      <c r="W37" s="22">
         <f t="shared" si="4"/>
-        <v>18.446898538371567</v>
-      </c>
-      <c r="W37" s="22">
+        <v>7.7655073081421652E-2</v>
+      </c>
+      <c r="X37" s="24">
         <f t="shared" si="5"/>
-        <v>7.7655073081421652E-2</v>
-      </c>
-      <c r="X37" s="24">
-        <f t="shared" si="6"/>
         <v>4.2405248317301879E-2</v>
       </c>
     </row>
@@ -2778,11 +2825,11 @@
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="F38" s="3">
+        <f t="shared" si="6"/>
+        <v>15127.819583925144</v>
+      </c>
+      <c r="G38" s="3">
         <f t="shared" si="7"/>
-        <v>15127.819583925144</v>
-      </c>
-      <c r="G38" s="3">
-        <f t="shared" si="8"/>
         <v>291608.57209457771</v>
       </c>
       <c r="H38" s="3"/>
@@ -2816,7 +2863,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0065609501928967</v>
       </c>
       <c r="U38" s="22">
@@ -2824,15 +2871,15 @@
         <v>6.5609501928967084E-3</v>
       </c>
       <c r="V38" s="28">
+        <f t="shared" si="3"/>
+        <v>18.249488209185664</v>
+      </c>
+      <c r="W38" s="22">
         <f t="shared" si="4"/>
-        <v>18.249488209185664</v>
-      </c>
-      <c r="W38" s="22">
+        <v>8.7525589540716806E-2</v>
+      </c>
+      <c r="X38" s="24">
         <f t="shared" si="5"/>
-        <v>8.7525589540716806E-2</v>
-      </c>
-      <c r="X38" s="24">
-        <f t="shared" si="6"/>
         <v>4.7043269866806757E-2</v>
       </c>
     </row>
@@ -2844,11 +2891,11 @@
         <v>5.6999999999999996E-6</v>
       </c>
       <c r="F39" s="3">
+        <f t="shared" si="6"/>
+        <v>12435.219656920732</v>
+      </c>
+      <c r="G39" s="3">
         <f t="shared" si="7"/>
-        <v>12435.219656920732</v>
-      </c>
-      <c r="G39" s="3">
-        <f t="shared" si="8"/>
         <v>240449.1734814939</v>
       </c>
       <c r="H39" s="3">
@@ -2884,7 +2931,7 @@
         <v>288135.59322033898</v>
       </c>
       <c r="T39" s="21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>1.0159557449249226</v>
       </c>
       <c r="U39" s="27">
@@ -2892,15 +2939,15 @@
         <v>1.5955744924922577E-2</v>
       </c>
       <c r="V39" s="30">
+        <f t="shared" si="3"/>
+        <v>21.925456548464489</v>
+      </c>
+      <c r="W39" s="27">
         <f t="shared" si="4"/>
-        <v>21.925456548464489</v>
-      </c>
-      <c r="W39" s="27">
+        <v>9.6272827423224433E-2</v>
+      </c>
+      <c r="X39" s="25">
         <f t="shared" si="5"/>
-        <v>9.6272827423224433E-2</v>
-      </c>
-      <c r="X39" s="25">
-        <f t="shared" si="6"/>
         <v>5.6114286174073505E-2</v>
       </c>
     </row>
@@ -2912,11 +2959,11 @@
         <v>6.8000000000000001E-6</v>
       </c>
       <c r="F40" s="3">
+        <f t="shared" si="6"/>
+        <v>10388.051771242377</v>
+      </c>
+      <c r="G40" s="3">
         <f t="shared" si="7"/>
-        <v>10388.051771242377</v>
-      </c>
-      <c r="G40" s="3">
-        <f t="shared" si="8"/>
         <v>201552.98365360516</v>
       </c>
       <c r="H40" s="3"/>
@@ -2931,11 +2978,11 @@
         <v>8.1999999999999994E-6</v>
       </c>
       <c r="F41" s="3">
+        <f t="shared" si="6"/>
+        <v>8576.9209810302655</v>
+      </c>
+      <c r="G41" s="3">
         <f t="shared" si="7"/>
-        <v>8576.9209810302655</v>
-      </c>
-      <c r="G41" s="3">
-        <f t="shared" si="8"/>
         <v>167141.49863957503</v>
       </c>
       <c r="H41" s="3"/>
@@ -2950,11 +2997,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F42" s="8">
+        <f t="shared" si="6"/>
+        <v>6993.475204444816</v>
+      </c>
+      <c r="G42" s="8">
         <f t="shared" si="7"/>
-        <v>6993.475204444816</v>
-      </c>
-      <c r="G42" s="8">
-        <f t="shared" si="8"/>
         <v>137056.02888445152</v>
       </c>
       <c r="H42" s="8"/>
@@ -2969,11 +3016,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F43" s="7">
+        <f t="shared" si="6"/>
+        <v>71894.752044448178</v>
+      </c>
+      <c r="G43" s="7">
         <f t="shared" si="7"/>
-        <v>71894.752044448178</v>
-      </c>
-      <c r="G43" s="7">
-        <f t="shared" si="8"/>
         <v>1370560.2888445153</v>
       </c>
       <c r="H43" s="7"/>
@@ -2988,11 +3035,11 @@
         <v>1.1999999999999999E-6</v>
       </c>
       <c r="F44" s="3">
+        <f t="shared" si="6"/>
+        <v>59872.293370373474</v>
+      </c>
+      <c r="G44" s="3">
         <f t="shared" si="7"/>
-        <v>59872.293370373474</v>
-      </c>
-      <c r="G44" s="3">
-        <f t="shared" si="8"/>
         <v>1142133.574037096</v>
       </c>
       <c r="H44" s="3"/>
@@ -3007,11 +3054,11 @@
         <v>1.5E-6</v>
       </c>
       <c r="F45" s="3">
+        <f t="shared" si="6"/>
+        <v>47849.834696298778</v>
+      </c>
+      <c r="G45" s="3">
         <f t="shared" si="7"/>
-        <v>47849.834696298778</v>
-      </c>
-      <c r="G45" s="3">
-        <f t="shared" si="8"/>
         <v>913706.85922967677</v>
       </c>
       <c r="H45" s="3"/>
@@ -3026,11 +3073,11 @@
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="F46" s="3">
+        <f t="shared" si="6"/>
+        <v>39834.862246915654</v>
+      </c>
+      <c r="G46" s="3">
         <f t="shared" si="7"/>
-        <v>39834.862246915654</v>
-      </c>
-      <c r="G46" s="3">
-        <f t="shared" si="8"/>
         <v>761422.38269139745</v>
       </c>
       <c r="H46" s="3"/>
@@ -3045,11 +3092,11 @@
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="F47" s="3">
+        <f t="shared" si="6"/>
+        <v>32548.523656567348</v>
+      </c>
+      <c r="G47" s="3">
         <f t="shared" si="7"/>
-        <v>32548.523656567348</v>
-      </c>
-      <c r="G47" s="3">
-        <f t="shared" si="8"/>
         <v>622981.94947477966</v>
       </c>
       <c r="H47" s="3"/>
@@ -3064,11 +3111,11 @@
         <v>2.7E-6</v>
       </c>
       <c r="F48" s="3">
+        <f t="shared" si="6"/>
+        <v>26476.574831277103</v>
+      </c>
+      <c r="G48" s="3">
         <f t="shared" si="7"/>
-        <v>26476.574831277103</v>
-      </c>
-      <c r="G48" s="3">
-        <f t="shared" si="8"/>
         <v>507614.92179426493</v>
       </c>
       <c r="H48" s="3"/>
@@ -3083,11 +3130,11 @@
         <v>3.3000000000000002E-6</v>
       </c>
       <c r="F49" s="3">
+        <f t="shared" si="6"/>
+        <v>21619.015771044898</v>
+      </c>
+      <c r="G49" s="3">
         <f t="shared" si="7"/>
-        <v>21619.015771044898</v>
-      </c>
-      <c r="G49" s="3">
-        <f t="shared" si="8"/>
         <v>415321.29964985303</v>
       </c>
       <c r="H49" s="3"/>
@@ -3102,11 +3149,11 @@
         <v>3.8999999999999999E-6</v>
       </c>
       <c r="F50" s="3">
+        <f t="shared" si="6"/>
+        <v>18256.090267807223</v>
+      </c>
+      <c r="G50" s="3">
         <f t="shared" si="7"/>
-        <v>18256.090267807223</v>
-      </c>
-      <c r="G50" s="3">
-        <f t="shared" si="8"/>
         <v>351425.71508833725</v>
       </c>
       <c r="H50" s="3"/>
@@ -3121,11 +3168,11 @@
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="F51" s="3">
+        <f t="shared" si="6"/>
+        <v>15107.819583925144</v>
+      </c>
+      <c r="G51" s="3">
         <f t="shared" si="7"/>
-        <v>15107.819583925144</v>
-      </c>
-      <c r="G51" s="3">
-        <f t="shared" si="8"/>
         <v>291608.57209457771</v>
       </c>
       <c r="H51" s="3"/>
@@ -3140,11 +3187,11 @@
         <v>5.6999999999999996E-6</v>
       </c>
       <c r="F52" s="3">
+        <f t="shared" si="6"/>
+        <v>12415.219656920732</v>
+      </c>
+      <c r="G52" s="3">
         <f t="shared" si="7"/>
-        <v>12415.219656920732</v>
-      </c>
-      <c r="G52" s="3">
-        <f t="shared" si="8"/>
         <v>240449.1734814939</v>
       </c>
       <c r="H52" s="3"/>
@@ -3159,11 +3206,11 @@
         <v>6.8000000000000001E-6</v>
       </c>
       <c r="F53" s="3">
+        <f t="shared" si="6"/>
+        <v>10368.051771242377</v>
+      </c>
+      <c r="G53" s="3">
         <f t="shared" si="7"/>
-        <v>10368.051771242377</v>
-      </c>
-      <c r="G53" s="3">
-        <f t="shared" si="8"/>
         <v>201552.98365360516</v>
       </c>
       <c r="H53" s="3"/>
@@ -3178,11 +3225,11 @@
         <v>8.1999999999999994E-6</v>
       </c>
       <c r="F54" s="3">
+        <f t="shared" si="6"/>
+        <v>8556.9209810302655</v>
+      </c>
+      <c r="G54" s="3">
         <f t="shared" si="7"/>
-        <v>8556.9209810302655</v>
-      </c>
-      <c r="G54" s="3">
-        <f t="shared" si="8"/>
         <v>167141.49863957503</v>
       </c>
       <c r="H54" s="3"/>
@@ -3197,11 +3244,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F55" s="8">
+        <f t="shared" si="6"/>
+        <v>6973.475204444816</v>
+      </c>
+      <c r="G55" s="8">
         <f t="shared" si="7"/>
-        <v>6973.475204444816</v>
-      </c>
-      <c r="G55" s="8">
-        <f t="shared" si="8"/>
         <v>137056.02888445152</v>
       </c>
       <c r="H55" s="8"/>
@@ -3216,11 +3263,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F56" s="7">
+        <f t="shared" si="6"/>
+        <v>71834.752044448178</v>
+      </c>
+      <c r="G56" s="7">
         <f t="shared" si="7"/>
-        <v>71834.752044448178</v>
-      </c>
-      <c r="G56" s="7">
-        <f t="shared" si="8"/>
         <v>1370560.2888445153</v>
       </c>
       <c r="H56" s="7"/>
@@ -3235,11 +3282,11 @@
         <v>1.1999999999999999E-6</v>
       </c>
       <c r="F57" s="3">
+        <f t="shared" si="6"/>
+        <v>59812.293370373474</v>
+      </c>
+      <c r="G57" s="3">
         <f t="shared" si="7"/>
-        <v>59812.293370373474</v>
-      </c>
-      <c r="G57" s="3">
-        <f t="shared" si="8"/>
         <v>1142133.574037096</v>
       </c>
       <c r="H57" s="3"/>
@@ -3254,11 +3301,11 @@
         <v>1.5E-6</v>
       </c>
       <c r="F58" s="3">
+        <f t="shared" si="6"/>
+        <v>47789.834696298778</v>
+      </c>
+      <c r="G58" s="3">
         <f t="shared" si="7"/>
-        <v>47789.834696298778</v>
-      </c>
-      <c r="G58" s="3">
-        <f t="shared" si="8"/>
         <v>913706.85922967677</v>
       </c>
       <c r="H58" s="3"/>
@@ -3273,11 +3320,11 @@
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="F59" s="3">
+        <f t="shared" si="6"/>
+        <v>39774.862246915654</v>
+      </c>
+      <c r="G59" s="3">
         <f t="shared" si="7"/>
-        <v>39774.862246915654</v>
-      </c>
-      <c r="G59" s="3">
-        <f t="shared" si="8"/>
         <v>761422.38269139745</v>
       </c>
       <c r="H59" s="3"/>
@@ -3292,11 +3339,11 @@
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="F60" s="3">
+        <f t="shared" si="6"/>
+        <v>32488.523656567348</v>
+      </c>
+      <c r="G60" s="3">
         <f t="shared" si="7"/>
-        <v>32488.523656567348</v>
-      </c>
-      <c r="G60" s="3">
-        <f t="shared" si="8"/>
         <v>622981.94947477966</v>
       </c>
       <c r="H60" s="3"/>
@@ -3311,11 +3358,11 @@
         <v>2.7E-6</v>
       </c>
       <c r="F61" s="3">
+        <f t="shared" si="6"/>
+        <v>26416.574831277103</v>
+      </c>
+      <c r="G61" s="3">
         <f t="shared" si="7"/>
-        <v>26416.574831277103</v>
-      </c>
-      <c r="G61" s="3">
-        <f t="shared" si="8"/>
         <v>507614.92179426493</v>
       </c>
       <c r="H61" s="3"/>
@@ -3330,11 +3377,11 @@
         <v>3.3000000000000002E-6</v>
       </c>
       <c r="F62" s="3">
+        <f t="shared" si="6"/>
+        <v>21559.015771044898</v>
+      </c>
+      <c r="G62" s="3">
         <f t="shared" si="7"/>
-        <v>21559.015771044898</v>
-      </c>
-      <c r="G62" s="3">
-        <f t="shared" si="8"/>
         <v>415321.29964985303</v>
       </c>
       <c r="H62" s="3"/>
@@ -3349,11 +3396,11 @@
         <v>3.8999999999999999E-6</v>
       </c>
       <c r="F63" s="3">
+        <f t="shared" si="6"/>
+        <v>18196.090267807223</v>
+      </c>
+      <c r="G63" s="3">
         <f t="shared" si="7"/>
-        <v>18196.090267807223</v>
-      </c>
-      <c r="G63" s="3">
-        <f t="shared" si="8"/>
         <v>351425.71508833725</v>
       </c>
       <c r="H63" s="3"/>
@@ -3368,11 +3415,11 @@
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="F64" s="3">
+        <f t="shared" si="6"/>
+        <v>15047.819583925144</v>
+      </c>
+      <c r="G64" s="3">
         <f t="shared" si="7"/>
-        <v>15047.819583925144</v>
-      </c>
-      <c r="G64" s="3">
-        <f t="shared" si="8"/>
         <v>291608.57209457771</v>
       </c>
       <c r="H64" s="3"/>
@@ -3387,11 +3434,11 @@
         <v>5.6999999999999996E-6</v>
       </c>
       <c r="F65" s="3">
+        <f t="shared" si="6"/>
+        <v>12355.219656920732</v>
+      </c>
+      <c r="G65" s="3">
         <f t="shared" si="7"/>
-        <v>12355.219656920732</v>
-      </c>
-      <c r="G65" s="3">
-        <f t="shared" si="8"/>
         <v>240449.1734814939</v>
       </c>
       <c r="H65" s="3"/>
@@ -3406,11 +3453,11 @@
         <v>6.8000000000000001E-6</v>
       </c>
       <c r="F66" s="3">
+        <f t="shared" si="6"/>
+        <v>10308.051771242377</v>
+      </c>
+      <c r="G66" s="3">
         <f t="shared" si="7"/>
-        <v>10308.051771242377</v>
-      </c>
-      <c r="G66" s="3">
-        <f t="shared" si="8"/>
         <v>201552.98365360516</v>
       </c>
       <c r="H66" s="3"/>
@@ -3425,11 +3472,11 @@
         <v>8.1999999999999994E-6</v>
       </c>
       <c r="F67" s="3">
+        <f t="shared" si="6"/>
+        <v>8496.9209810302655</v>
+      </c>
+      <c r="G67" s="3">
         <f t="shared" si="7"/>
-        <v>8496.9209810302655</v>
-      </c>
-      <c r="G67" s="3">
-        <f t="shared" si="8"/>
         <v>167141.49863957503</v>
       </c>
       <c r="H67" s="3"/>
@@ -3444,11 +3491,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F68" s="8">
+        <f t="shared" si="6"/>
+        <v>6913.475204444816</v>
+      </c>
+      <c r="G68" s="8">
         <f t="shared" si="7"/>
-        <v>6913.475204444816</v>
-      </c>
-      <c r="G68" s="8">
-        <f t="shared" si="8"/>
         <v>137056.02888445152</v>
       </c>
       <c r="H68" s="8"/>
@@ -3463,11 +3510,11 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="F69" s="7">
+        <f t="shared" si="6"/>
+        <v>71774.752044448178</v>
+      </c>
+      <c r="G69" s="7">
         <f t="shared" si="7"/>
-        <v>71774.752044448178</v>
-      </c>
-      <c r="G69" s="7">
-        <f t="shared" si="8"/>
         <v>1370560.2888445153</v>
       </c>
       <c r="H69" s="7"/>
@@ -3482,11 +3529,11 @@
         <v>1.1999999999999999E-6</v>
       </c>
       <c r="F70" s="3">
+        <f t="shared" si="6"/>
+        <v>59752.293370373474</v>
+      </c>
+      <c r="G70" s="3">
         <f t="shared" si="7"/>
-        <v>59752.293370373474</v>
-      </c>
-      <c r="G70" s="3">
-        <f t="shared" si="8"/>
         <v>1142133.574037096</v>
       </c>
       <c r="H70" s="3"/>
@@ -3501,11 +3548,11 @@
         <v>1.5E-6</v>
       </c>
       <c r="F71" s="3">
+        <f t="shared" si="6"/>
+        <v>47729.834696298778</v>
+      </c>
+      <c r="G71" s="3">
         <f t="shared" si="7"/>
-        <v>47729.834696298778</v>
-      </c>
-      <c r="G71" s="3">
-        <f t="shared" si="8"/>
         <v>913706.85922967677</v>
       </c>
       <c r="H71" s="3"/>
@@ -3520,11 +3567,11 @@
         <v>1.7999999999999999E-6</v>
       </c>
       <c r="F72" s="3">
+        <f t="shared" si="6"/>
+        <v>39714.862246915654</v>
+      </c>
+      <c r="G72" s="3">
         <f t="shared" si="7"/>
-        <v>39714.862246915654</v>
-      </c>
-      <c r="G72" s="3">
-        <f t="shared" si="8"/>
         <v>761422.38269139745</v>
       </c>
       <c r="H72" s="3"/>
@@ -3539,11 +3586,11 @@
         <v>2.2000000000000001E-6</v>
       </c>
       <c r="F73" s="3">
+        <f t="shared" si="6"/>
+        <v>32428.523656567348</v>
+      </c>
+      <c r="G73" s="3">
         <f t="shared" si="7"/>
-        <v>32428.523656567348</v>
-      </c>
-      <c r="G73" s="3">
-        <f t="shared" si="8"/>
         <v>622981.94947477966</v>
       </c>
       <c r="H73" s="3"/>
@@ -3558,11 +3605,11 @@
         <v>2.7E-6</v>
       </c>
       <c r="F74" s="3">
+        <f t="shared" si="6"/>
+        <v>26356.574831277103</v>
+      </c>
+      <c r="G74" s="3">
         <f t="shared" si="7"/>
-        <v>26356.574831277103</v>
-      </c>
-      <c r="G74" s="3">
-        <f t="shared" si="8"/>
         <v>507614.92179426493</v>
       </c>
       <c r="H74" s="3"/>
@@ -3577,11 +3624,11 @@
         <v>3.3000000000000002E-6</v>
       </c>
       <c r="F75" s="3">
+        <f t="shared" si="6"/>
+        <v>21499.015771044898</v>
+      </c>
+      <c r="G75" s="3">
         <f t="shared" si="7"/>
-        <v>21499.015771044898</v>
-      </c>
-      <c r="G75" s="3">
-        <f t="shared" si="8"/>
         <v>415321.29964985303</v>
       </c>
       <c r="H75" s="3"/>
@@ -3596,11 +3643,11 @@
         <v>3.8999999999999999E-6</v>
       </c>
       <c r="F76" s="3">
+        <f t="shared" si="6"/>
+        <v>18136.090267807223</v>
+      </c>
+      <c r="G76" s="3">
         <f t="shared" si="7"/>
-        <v>18136.090267807223</v>
-      </c>
-      <c r="G76" s="3">
-        <f t="shared" si="8"/>
         <v>351425.71508833725</v>
       </c>
       <c r="H76" s="3"/>
@@ -3615,11 +3662,11 @@
         <v>4.6999999999999999E-6</v>
       </c>
       <c r="F77" s="3">
+        <f t="shared" si="6"/>
+        <v>14987.819583925144</v>
+      </c>
+      <c r="G77" s="3">
         <f t="shared" si="7"/>
-        <v>14987.819583925144</v>
-      </c>
-      <c r="G77" s="3">
-        <f t="shared" si="8"/>
         <v>291608.57209457771</v>
       </c>
       <c r="H77" s="3"/>
@@ -3634,11 +3681,11 @@
         <v>5.6999999999999996E-6</v>
       </c>
       <c r="F78" s="3">
+        <f t="shared" si="6"/>
+        <v>12295.219656920732</v>
+      </c>
+      <c r="G78" s="3">
         <f t="shared" si="7"/>
-        <v>12295.219656920732</v>
-      </c>
-      <c r="G78" s="3">
-        <f t="shared" si="8"/>
         <v>240449.1734814939</v>
       </c>
       <c r="H78" s="3"/>
@@ -3653,11 +3700,11 @@
         <v>6.8000000000000001E-6</v>
       </c>
       <c r="F79" s="3">
+        <f t="shared" si="6"/>
+        <v>10248.051771242377</v>
+      </c>
+      <c r="G79" s="3">
         <f t="shared" si="7"/>
-        <v>10248.051771242377</v>
-      </c>
-      <c r="G79" s="3">
-        <f t="shared" si="8"/>
         <v>201552.98365360516</v>
       </c>
       <c r="H79" s="3"/>
@@ -3672,11 +3719,11 @@
         <v>8.1999999999999994E-6</v>
       </c>
       <c r="F80" s="3">
+        <f t="shared" si="6"/>
+        <v>8436.9209810302655</v>
+      </c>
+      <c r="G80" s="3">
         <f t="shared" si="7"/>
-        <v>8436.9209810302655</v>
-      </c>
-      <c r="G80" s="3">
-        <f t="shared" si="8"/>
         <v>167141.49863957503</v>
       </c>
       <c r="H80" s="3"/>
@@ -3691,11 +3738,11 @@
         <v>1.0000000000000001E-5</v>
       </c>
       <c r="F81" s="8">
+        <f t="shared" si="6"/>
+        <v>6853.475204444816</v>
+      </c>
+      <c r="G81" s="8">
         <f t="shared" si="7"/>
-        <v>6853.475204444816</v>
-      </c>
-      <c r="G81" s="8">
-        <f t="shared" si="8"/>
         <v>137056.02888445152</v>
       </c>
       <c r="H81" s="8"/>
@@ -10678,7 +10725,7 @@
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
@@ -10698,10 +10745,10 @@
         <v>12</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>10</v>
@@ -10710,16 +10757,16 @@
         <v>7</v>
       </c>
       <c r="O9" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -10802,13 +10849,13 @@
         <v>1</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C13" s="39" t="s">
         <v>3</v>
       </c>
       <c r="D13" s="40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G13" s="38">
         <f t="shared" si="0"/>
@@ -11383,13 +11430,13 @@
         <v>7</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -11423,16 +11470,16 @@
         <v>1</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C7" s="39" t="s">
         <v>3</v>
       </c>
       <c r="D7" s="40" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H7" s="13">
         <f t="shared" ref="H7:H18" si="0">$A$8*$B$8</f>
@@ -15947,39 +15994,42 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B1" s="1">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B2" s="3">
         <v>100000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B3" s="3">
         <v>100000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -15987,16 +16037,16 @@
         <v>4.7E-7</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="59" t="s">
-        <v>60</v>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>57</v>
       </c>
       <c r="B5" s="1">
         <f>B3/(B3+B2)</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
@@ -16004,23 +16054,48 @@
         <f>1/(B1*2*B4*LN((1+B5)/(1-B5)))</f>
         <v>19366.792055890157</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="58" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="3">
+        <v>10000</v>
+      </c>
+      <c r="D8" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10">
+        <f>1/(2*(B7+B8)*B4*LN((1+B5)/(1-B5)))</f>
+        <v>96.833960279450764</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
